--- a/upload/laporanPendinganTeknisi.xlsx
+++ b/upload/laporanPendinganTeknisi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t xml:space="preserve">Teknisi :  </t>
   </si>
@@ -38,16 +38,16 @@
     <t>Tgl Pending</t>
   </si>
   <si>
-    <t>ZM23000062</t>
-  </si>
-  <si>
-    <t>Uraian : Laptop gabisa main valorant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keterangan : </t>
-  </si>
-  <si>
-    <t>10-JUN-23  15:45</t>
+    <t>ZM23000071</t>
+  </si>
+  <si>
+    <t>Uraian : barang rusak</t>
+  </si>
+  <si>
+    <t>Keterangan : pending lagi</t>
+  </si>
+  <si>
+    <t>14-JUN-23  08:10</t>
   </si>
   <si>
     <t>FC</t>
@@ -56,16 +56,7 @@
     <t>A001</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>ZM23000061</t>
-  </si>
-  <si>
-    <t>Uraian : laptop hang gabisa nyala</t>
-  </si>
-  <si>
-    <t>09-JUN-23  10:51</t>
+    <t>15-JUN-23  15:33</t>
   </si>
 </sst>
 </file>
@@ -405,7 +396,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,36 +456,6 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
